--- a/Reviews_Ans.xlsx
+++ b/Reviews_Ans.xlsx
@@ -2,11 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -26,23 +29,28 @@
       <patternFill/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -115,7 +123,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -305,6 +313,8 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -314,67 +324,70 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col width="23.453125" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="n">
-        <v>1948310077</v>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B1" t="inlineStr">
         <is>
           <t>I did not like the food</t>
         </is>
       </c>
-      <c r="C1" s="0" t="n">
+      <c r="C1" t="n">
         <v>-0.2755</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="n">
-        <v>1948310077</v>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>I did not like the food</t>
         </is>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>-0.2755</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="n">
-        <v>1948310077</v>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>I loved the food</t>
         </is>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" t="n">
         <v>0.5994</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="n">
-        <v>1948310077</v>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>I did not like the food</t>
         </is>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" t="n">
         <v>-0.2755</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="n">
         <v>1948310077</v>
       </c>
@@ -385,6 +398,45 @@
       </c>
       <c r="C5" t="n">
         <v>0.6369</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The food was delicious</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5719</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The food was awful</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.4588</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Food was ok</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.296</v>
       </c>
     </row>
   </sheetData>

--- a/Reviews_Ans.xlsx
+++ b/Reviews_Ans.xlsx
@@ -1,32 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My Notebook\Downloads\RestaurantReviewSystem\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9344AEFC-6C22-4C27-8CD5-647E65E8FB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>I did not like the food</t>
+  </si>
+  <si>
+    <t>I loved the food</t>
+  </si>
+  <si>
+    <t>I love the food</t>
+  </si>
+  <si>
+    <t>The food was delicious</t>
+  </si>
+  <si>
+    <t>The food was awful</t>
+  </si>
+  <si>
+    <t>Food was ok</t>
+  </si>
+  <si>
+    <t>the food was pathetic</t>
+  </si>
+  <si>
+    <t>Customer ID</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -44,81 +92,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -319,127 +309,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="23.453125" customWidth="1" min="2" max="2"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="n">
-        <v>1948310077</v>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>I did not like the food</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>-0.2755</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" t="n">
-        <v>1948310077</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>I did not like the food</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-0.2755</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="n">
-        <v>1948310077</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>I loved the food</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5994</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" t="n">
-        <v>1948310077</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>I did not like the food</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.2755</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" t="n">
-        <v>1948310077</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>I love the food</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.6369</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" t="n">
-        <v>1948310077</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>The food was delicious</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5719</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" t="n">
-        <v>1948310077</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>The food was awful</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>-0.4588</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1948310077</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Food was ok</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.296</v>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1948310077</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>-0.27550000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1948310077</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>-0.27550000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1948310077</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.59940000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1948310077</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-0.27550000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1948310077</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0.63690000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1948310077</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0.57189999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1948310077</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>-0.45879999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1948310077</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>814688088</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>-0.57189999999999996</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Reviews_Ans.xlsx
+++ b/Reviews_Ans.xlsx
@@ -1,80 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My Notebook\Downloads\RestaurantReviewSystem\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9344AEFC-6C22-4C27-8CD5-647E65E8FB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>I did not like the food</t>
-  </si>
-  <si>
-    <t>I loved the food</t>
-  </si>
-  <si>
-    <t>I love the food</t>
-  </si>
-  <si>
-    <t>The food was delicious</t>
-  </si>
-  <si>
-    <t>The food was awful</t>
-  </si>
-  <si>
-    <t>Food was ok</t>
-  </si>
-  <si>
-    <t>the food was pathetic</t>
-  </si>
-  <si>
-    <t>Customer ID</t>
-  </si>
-  <si>
-    <t>Review</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,22 +53,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -309,133 +328,301 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col width="23.453125" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1948310077</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Customer ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>I did not like the food</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.2755</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>I did not like the food</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.2755</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>I loved the food</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5994</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>I did not like the food</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.2755</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>I love the food</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6369</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The food was delicious</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5719</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>The food was awful</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.4588</v>
+      </c>
+    </row>
+    <row r="9" ht="12.5" customHeight="1">
+      <c r="A9" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Food was ok</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.296</v>
+      </c>
+    </row>
+    <row r="10" ht="12.5" customHeight="1">
+      <c r="A10" t="n">
+        <v>814688088</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>the food was pathetic</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.5719</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>The place was alright</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>901563066</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pathetic curry and dried breads</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.5719</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>901563066</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>the pastries were sour and delayed service</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.2263</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>901563066</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>The delicacies were tasty</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>-0.27550000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1948310077</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>901563066</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>awesome food</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6249</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>814688088</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>I loved the food, would definitely pay another visit</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7351</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>The food was the best thank you</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7717000000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>901563066</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>The delicacies were tasty</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>-0.27550000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1948310077</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0.59940000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1948310077</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>901563066</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Tasty</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>-0.27550000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1948310077</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>0.63690000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1948310077</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>0.57189999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1948310077</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>-0.45879999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1948310077</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>0.29599999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>814688088</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>-0.57189999999999996</v>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>901563066</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>awesome food</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6249</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>901563066</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>taste was not so good</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.464</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
 </file>
--- a/Reviews_Ans.xlsx
+++ b/Reviews_Ans.xlsx
@@ -333,7 +333,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -621,6 +621,19 @@
         <v>-0.464</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1948310077</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>The food was very bad</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.5849</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
